--- a/permin.xlsx
+++ b/permin.xlsx
@@ -829,7 +829,7 @@
         <v>1.565277777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -840,7 +840,7 @@
         <v>1.565972222222222</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -851,7 +851,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -862,7 +862,7 @@
         <v>1.567361111111111</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -873,7 +873,7 @@
         <v>1.568055555555556</v>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -884,7 +884,7 @@
         <v>1.56875</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -895,7 +895,7 @@
         <v>1.569444444444444</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -906,7 +906,7 @@
         <v>1.570138888888889</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -917,7 +917,7 @@
         <v>1.570833333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -928,7 +928,7 @@
         <v>1.571527777777778</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -939,7 +939,7 @@
         <v>1.572222222222222</v>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -950,7 +950,7 @@
         <v>1.572916666666667</v>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -961,7 +961,7 @@
         <v>1.573611111111111</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -972,7 +972,7 @@
         <v>1.574305555555556</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -983,7 +983,7 @@
         <v>1.575</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -994,7 +994,7 @@
         <v>1.575694444444444</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1005,7 +1005,7 @@
         <v>1.576388888888889</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1016,7 +1016,7 @@
         <v>1.577083333333333</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1027,7 +1027,7 @@
         <v>1.577777777777778</v>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1038,7 +1038,7 @@
         <v>1.578472222222222</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
